--- a/фичи, памятка/Памятка JS.xlsx
+++ b/фичи, памятка/Памятка JS.xlsx
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
